--- a/计分表/驼峰航线分数统计表.xlsx
+++ b/计分表/驼峰航线分数统计表.xlsx
@@ -1,48 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="小学组" sheetId="1" r:id="rId1"/>
+    <sheet name="初中组" sheetId="2" r:id="rId2"/>
+    <sheet name="高中组" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+  <si>
+    <t>"驼峰航线"小学组-分数统计表</t>
+  </si>
+  <si>
+    <t>参赛学校</t>
+  </si>
+  <si>
+    <t>参赛队伍</t>
+  </si>
+  <si>
+    <t>侦察机起飞合格</t>
+  </si>
+  <si>
+    <t>侦察机飞行稳定</t>
+  </si>
+  <si>
+    <t>正确报告投掷点</t>
+  </si>
+  <si>
+    <t>侦察机正确降落</t>
+  </si>
+  <si>
+    <t>侦察机精准降落</t>
+  </si>
+  <si>
+    <t>运输机采用无线电告知</t>
+  </si>
+  <si>
+    <t>运输机飞行稳定</t>
+  </si>
+  <si>
+    <t>运输机正确投放数量</t>
+  </si>
+  <si>
+    <t>运输机精准投放数量</t>
+  </si>
+  <si>
+    <t>任务时长</t>
+  </si>
+  <si>
+    <t>任务总分</t>
+  </si>
+  <si>
+    <t>备注：如果合格或符合要求填写1即可，如果为数量则填写符合要求的数量，最后填写任务时长会自动计算总分</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +442,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1048,1166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="4" width="9.625" style="3" customWidth="1"/>
+    <col min="5" max="10" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13">
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3">
+        <f>(C3+D3+F3+H3+I3+J3)*5+(E3+G3+K3)*10+IF(((90-L3)&gt;=0),(90-L3),0)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13">
+      <c r="M4">
+        <f t="shared" ref="M4:M27" si="0">(C4+D4+F4+H4+I4+J4)*5+(E4+G4+K4)*10+IF(((90-L4)&gt;=0),(90-L4),0)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="13:13">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="13:13">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="13:13">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A28:M28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M27" si="0">(C3+D3+F3+H3+I3+J3)*5+(E3+G3+K3)*10+IF(((90-L3)&gt;=0),(90-L3),0)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A28:M28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M27" si="0">(C3+D3+F3+H3+I3+J3)*5+(E3+G3+K3)*10+IF(((90-L3)&gt;=0),(90-L3),0)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A28:M28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>